--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -747,119 +747,149 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2" t="n">
         <v>3.7</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.51</v>
-      </c>
       <c r="J2" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>3.77</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
         <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V2" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>101</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY2" t="n">
         <v>23</v>
       </c>
-      <c r="AM2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
+      <c r="AZ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>126</v>
+      </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
     </row>
@@ -1245,16 +1275,16 @@
         <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1580,19 +1610,19 @@
         <v>1.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="K7" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1609,13 +1639,13 @@
         <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="T7" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
         <v>1.7</v>
@@ -1624,31 +1654,31 @@
         <v>5.8</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA7" t="n">
         <v>14.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="n">
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE7" t="n">
         <v>17.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="n">
         <v>900</v>
@@ -1657,13 +1687,13 @@
         <v>12.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ7" t="n">
         <v>17</v>
       </c>
       <c r="AK7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL7" t="n">
         <v>60</v>
@@ -1681,7 +1711,7 @@
         <v>17.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR7" t="n">
         <v>55</v>
@@ -1690,16 +1720,16 @@
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV7" t="n">
         <v>70</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1708,7 +1738,7 @@
         <v>32</v>
       </c>
       <c r="AZ7" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BA7" t="n">
         <v>200</v>
@@ -1790,7 +1820,7 @@
         <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
         <v>1.6</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -1145,16 +1145,16 @@
         <v>3.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="V4" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="W4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>6.4</v>
@@ -1172,7 +1172,7 @@
         <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -1184,10 +1184,10 @@
         <v>101</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="n">
         <v>11</v>
@@ -1607,13 +1607,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J7" t="n">
         <v>2.18</v>
@@ -1630,7 +1630,7 @@
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
         <v>1.98</v>
@@ -1642,10 +1642,10 @@
         <v>1.39</v>
       </c>
       <c r="T7" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
         <v>1.7</v>
@@ -1654,31 +1654,31 @@
         <v>5.8</v>
       </c>
       <c r="X7" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
         <v>14.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="n">
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="n">
         <v>900</v>
@@ -1702,19 +1702,19 @@
         <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO7" t="n">
         <v>7.8</v>
       </c>
       <c r="AP7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
         <v>26</v>
       </c>
       <c r="AR7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
@@ -1723,7 +1723,7 @@
         <v>2.55</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV7" t="n">
         <v>70</v>
@@ -1735,7 +1735,7 @@
         <v>30</v>
       </c>
       <c r="AY7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ7" t="n">
         <v>200</v>
@@ -1781,46 +1781,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I8" t="n">
-        <v>4.85</v>
+        <v>5.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="L8" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>11.5</v>
+        <v>12.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="R8" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>3.32</v>
       </c>
       <c r="U8" t="n">
         <v>1.6</v>
@@ -1829,31 +1829,31 @@
         <v>2.05</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Z8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE8" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>50</v>
@@ -1862,58 +1862,58 @@
         <v>300</v>
       </c>
       <c r="AH8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>16.5</v>
       </c>
-      <c r="AI8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
       <c r="AK8" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AL8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR8" t="n">
         <v>45</v>
       </c>
-      <c r="AM8" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>50</v>
-      </c>
       <c r="AS8" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV8" t="n">
         <v>50</v>
       </c>
       <c r="AW8" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ8" t="n">
         <v>150</v>
@@ -1922,7 +1922,7 @@
         <v>150</v>
       </c>
       <c r="BB8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -1977,10 +1977,10 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -1989,10 +1989,10 @@
         <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -967,10 +967,10 @@
         <v>3.24</v>
       </c>
       <c r="U3" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V3" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="W3" t="n">
         <v>9</v>
@@ -1103,22 +1103,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>3.86</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="L4" t="n">
-        <v>4.47</v>
+        <v>4.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1133,10 +1133,10 @@
         <v>4.48</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="S4" t="n">
         <v>1.3</v>
@@ -1145,77 +1145,107 @@
         <v>3.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V4" t="n">
-        <v>2.19</v>
+        <v>2.21</v>
       </c>
       <c r="W4" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AC4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH4" t="n">
         <v>12</v>
       </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11</v>
-      </c>
       <c r="AI4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK4" t="n">
         <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>300</v>
+      </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
     </row>
@@ -1251,28 +1281,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1302,19 +1332,19 @@
         <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
         <v>19</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
@@ -1329,7 +1359,7 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH5" t="n">
         <v>11</v>
@@ -1341,10 +1371,10 @@
         <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>26</v>
@@ -1377,10 +1407,10 @@
         <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
         <v>21</v>
@@ -1959,13 +1989,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
         <v>2.75</v>
@@ -2010,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
@@ -2052,7 +2082,7 @@
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
@@ -2100,7 +2130,7 @@
         <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2198,7 +2228,7 @@
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>13</v>
@@ -2231,7 +2261,7 @@
         <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
         <v>34</v>
@@ -2282,7 +2312,7 @@
         <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2323,103 +2353,103 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.65</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.8</v>
       </c>
       <c r="S11" t="n">
         <v>1.42</v>
       </c>
       <c r="T11" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U11" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
         <v>80</v>
       </c>
       <c r="AA11" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AB11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AE11" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AF11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG11" t="n">
         <v>700</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="AI11" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AN11" t="n">
         <v>6.3</v>
@@ -2434,13 +2464,13 @@
         <v>175</v>
       </c>
       <c r="AR11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS11" t="n">
         <v>500</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU11" t="n">
         <v>7.9</v>
@@ -2455,7 +2485,7 @@
         <v>8.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -783,31 +783,31 @@
         <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>21</v>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -831,31 +831,31 @@
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
       </c>
       <c r="AL2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM2" t="n">
         <v>26</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>29</v>
       </c>
       <c r="AN2" t="n">
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -867,30 +867,32 @@
         <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>351</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA2" t="n">
         <v>51</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
         <v>67</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2" t="n">
         <v>126</v>
       </c>
-      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -973,10 +975,10 @@
         <v>2.46</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
         <v>7.9</v>
@@ -991,10 +993,10 @@
         <v>17.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
@@ -1006,7 +1008,7 @@
         <v>150</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI3" t="n">
         <v>12.5</v>
@@ -1021,54 +1023,54 @@
         <v>16.5</v>
       </c>
       <c r="AM3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AO3" t="n">
         <v>13.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ3" t="n">
         <v>55</v>
       </c>
       <c r="AR3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS3" t="n">
         <v>175</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AV3" t="n">
         <v>45</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="n">
         <v>4.75</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AY3" t="n">
         <v>14.5</v>
       </c>
-      <c r="AY3" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AZ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA3" t="n">
         <v>65</v>
       </c>
-      <c r="BA3" t="n">
-        <v>90</v>
-      </c>
       <c r="BB3" t="n">
+        <v>80</v>
+      </c>
+      <c r="BC3" t="n">
         <v>200</v>
       </c>
-      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1106,19 +1108,19 @@
         <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L4" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1136,7 +1138,7 @@
         <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
         <v>1.3</v>
@@ -1151,13 +1153,13 @@
         <v>2.21</v>
       </c>
       <c r="W4" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="Z4" t="n">
         <v>11.25</v>
@@ -1169,13 +1171,13 @@
         <v>17.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE4" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF4" t="n">
         <v>40</v>
@@ -1184,19 +1186,19 @@
         <v>250</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM4" t="n">
         <v>28</v>
@@ -1205,13 +1207,13 @@
         <v>3.65</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
         <v>16</v>
       </c>
       <c r="AQ4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>50</v>
@@ -1220,33 +1222,33 @@
         <v>175</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV4" t="n">
         <v>55</v>
       </c>
-      <c r="AW4" t="n">
-        <v>6.1</v>
-      </c>
+      <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>22</v>
+        <v>5.9</v>
       </c>
       <c r="AY4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>26</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="BA4" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB4" t="n">
         <v>120</v>
       </c>
-      <c r="BA4" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB4" t="n">
+      <c r="BC4" t="n">
         <v>300</v>
       </c>
-      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1281,13 +1283,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -1299,10 +1301,10 @@
         <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1335,13 +1337,13 @@
         <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
         <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>23</v>
@@ -1368,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1406,25 +1408,25 @@
       <c r="AV5" t="n">
         <v>41</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="n">
         <v>5</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY5" t="n">
         <v>15</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AZ5" t="n">
         <v>21</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BA5" t="n">
         <v>41</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BB5" t="n">
         <v>51</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BC5" t="n">
         <v>126</v>
       </c>
-      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1459,28 +1461,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="J6" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="K6" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L6" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1489,10 +1491,10 @@
         <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S6" t="n">
         <v>1.34</v>
@@ -1501,73 +1503,73 @@
         <v>2.99</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
       </c>
       <c r="Z6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>14</v>
       </c>
       <c r="AK6" t="n">
         <v>75</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM6" t="n">
         <v>45</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AR6" t="n">
         <v>55</v>
@@ -1576,33 +1578,33 @@
         <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AV6" t="n">
         <v>65</v>
       </c>
-      <c r="AW6" t="n">
-        <v>6.1</v>
-      </c>
+      <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>25</v>
+        <v>6.2</v>
       </c>
       <c r="AY6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>30</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="BA6" t="n">
         <v>150</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
         <v>175</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BC6" t="n">
         <v>400</v>
       </c>
-      <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1637,13 +1639,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H7" t="n">
         <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="J7" t="n">
         <v>2.18</v>
@@ -1660,7 +1662,7 @@
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="Q7" t="n">
         <v>1.98</v>
@@ -1672,7 +1674,7 @@
         <v>1.39</v>
       </c>
       <c r="T7" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U7" t="n">
         <v>1.93</v>
@@ -1681,10 +1683,10 @@
         <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
@@ -1693,7 +1695,7 @@
         <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB7" t="n">
         <v>32</v>
@@ -1702,7 +1704,7 @@
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE7" t="n">
         <v>18</v>
@@ -1717,22 +1719,22 @@
         <v>12.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ7" t="n">
         <v>17</v>
       </c>
       <c r="AK7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL7" t="n">
         <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO7" t="n">
         <v>7.8</v>
@@ -1750,33 +1752,33 @@
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU7" t="n">
         <v>7.6</v>
       </c>
       <c r="AV7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.8</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AY7" t="n">
         <v>30</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AZ7" t="n">
         <v>35</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>200</v>
       </c>
       <c r="BA7" t="n">
         <v>200</v>
       </c>
       <c r="BB7" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC7" t="inlineStr"/>
+        <v>250</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>500</v>
+      </c>
       <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1832,7 +1834,7 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
@@ -1847,10 +1849,10 @@
         <v>2.15</v>
       </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T8" t="n">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="U8" t="n">
         <v>1.6</v>
@@ -1936,25 +1938,25 @@
       <c r="AV8" t="n">
         <v>50</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="n">
         <v>7.1</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AY8" t="n">
         <v>28</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AZ8" t="n">
         <v>27</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>150</v>
       </c>
       <c r="BA8" t="n">
         <v>150</v>
       </c>
       <c r="BB8" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC8" t="n">
         <v>250</v>
       </c>
-      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1992,37 +1994,37 @@
         <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
         <v>2.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2031,16 +2033,16 @@
         <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
@@ -2055,10 +2057,10 @@
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2067,7 +2069,7 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH9" t="n">
         <v>10</v>
@@ -2082,7 +2084,7 @@
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
@@ -2091,7 +2093,7 @@
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
@@ -2100,40 +2102,40 @@
         <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
         <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX9" t="n">
         <v>5.5</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AY9" t="n">
         <v>21</v>
       </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA9" t="n">
         <v>67</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BB9" t="n">
         <v>101</v>
       </c>
-      <c r="BB9" t="n">
-        <v>201</v>
-      </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD9" t="n">
         <v>126</v>
@@ -2297,25 +2299,25 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX10" t="n">
         <v>6.5</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AY10" t="n">
         <v>23</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AZ10" t="n">
         <v>29</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>81</v>
       </c>
       <c r="BA10" t="n">
         <v>81</v>
       </c>
       <c r="BB10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC10" t="n">
         <v>151</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>81</v>
       </c>
       <c r="BD10" t="n">
         <v>81</v>
@@ -2353,82 +2355,82 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.65</v>
       </c>
       <c r="S11" t="n">
         <v>1.42</v>
       </c>
       <c r="T11" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AA11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="n">
         <v>700</v>
@@ -2437,31 +2439,31 @@
         <v>5.9</v>
       </c>
       <c r="AI11" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AL11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM11" t="n">
         <v>32</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AP11" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AQ11" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AR11" t="n">
         <v>250</v>
@@ -2470,33 +2472,33 @@
         <v>500</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>80</v>
       </c>
-      <c r="AW11" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="AY11" t="n">
-        <v>19.5</v>
+        <v>7.8</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC11" t="n">
         <v>300</v>
       </c>
-      <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -771,10 +771,10 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.6</v>
@@ -783,31 +783,31 @@
         <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W2" t="n">
+        <v>10</v>
+      </c>
+      <c r="X2" t="n">
         <v>11</v>
       </c>
-      <c r="X2" t="n">
-        <v>12</v>
-      </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>21</v>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -825,37 +825,37 @@
         <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -867,7 +867,7 @@
         <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -876,13 +876,13 @@
         <v>351</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="H3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J3" t="n">
         <v>3.05</v>
@@ -948,31 +948,31 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>4.48</v>
+        <v>3.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>3.24</v>
+        <v>3.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="V3" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="W3" t="n">
         <v>9.25</v>
@@ -990,34 +990,34 @@
         <v>15.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>11.25</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
         <v>150</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>8</v>
       </c>
       <c r="AK3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>16.5</v>
@@ -1044,17 +1044,17 @@
         <v>175</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
         <v>45</v>
       </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AY3" t="n">
         <v>14.5</v>
@@ -1120,46 +1120,46 @@
         <v>2.27</v>
       </c>
       <c r="L4" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>10.5</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4.48</v>
+        <v>4.05</v>
       </c>
       <c r="Q4" t="n">
         <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U4" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="V4" t="n">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Z4" t="n">
         <v>11.25</v>
@@ -1168,7 +1168,7 @@
         <v>10.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
@@ -1177,10 +1177,10 @@
         <v>6.7</v>
       </c>
       <c r="AE4" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG4" t="n">
         <v>250</v>
@@ -1201,7 +1201,7 @@
         <v>27</v>
       </c>
       <c r="AM4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
         <v>3.65</v>
@@ -1219,7 +1219,7 @@
         <v>50</v>
       </c>
       <c r="AS4" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT4" t="n">
         <v>3.05</v>
@@ -1228,11 +1228,11 @@
         <v>7.2</v>
       </c>
       <c r="AV4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
         <v>21</v>
@@ -1244,7 +1244,7 @@
         <v>110</v>
       </c>
       <c r="BB4" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC4" t="n">
         <v>300</v>
@@ -1301,10 +1301,10 @@
         <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H6" t="n">
         <v>3.65</v>
       </c>
       <c r="I6" t="n">
-        <v>4.45</v>
+        <v>4.85</v>
       </c>
       <c r="J6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="K6" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1485,125 +1485,125 @@
         <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T6" t="n">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="X6" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>27</v>
       </c>
       <c r="AR6" t="n">
         <v>55</v>
       </c>
       <c r="AS6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB6" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC6" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD6" t="inlineStr"/>
     </row>
@@ -1651,10 +1651,10 @@
         <v>2.18</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1662,7 +1662,7 @@
         <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
         <v>1.98</v>
@@ -1683,7 +1683,7 @@
         <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X7" t="n">
         <v>7</v>
@@ -1695,7 +1695,7 @@
         <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB7" t="n">
         <v>32</v>
@@ -1707,7 +1707,7 @@
         <v>6.8</v>
       </c>
       <c r="AE7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF7" t="n">
         <v>100</v>
@@ -1722,16 +1722,16 @@
         <v>30</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK7" t="n">
         <v>100</v>
       </c>
       <c r="AL7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM7" t="n">
         <v>60</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>65</v>
       </c>
       <c r="AN7" t="n">
         <v>3.4</v>
@@ -1740,7 +1740,7 @@
         <v>7.8</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>26</v>
@@ -1752,32 +1752,32 @@
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
         <v>6.7</v>
       </c>
       <c r="AY7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA7" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB7" t="n">
         <v>200</v>
       </c>
-      <c r="BB7" t="n">
-        <v>250</v>
-      </c>
       <c r="BC7" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD7" t="inlineStr"/>
     </row>
@@ -1819,16 +1819,16 @@
         <v>3.85</v>
       </c>
       <c r="I8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="K8" t="n">
         <v>2.27</v>
       </c>
       <c r="L8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1843,10 +1843,10 @@
         <v>3.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S8" t="n">
         <v>1.28</v>
@@ -1855,7 +1855,7 @@
         <v>3.34</v>
       </c>
       <c r="U8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
         <v>2.05</v>
@@ -1867,7 +1867,7 @@
         <v>8.25</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Z8" t="n">
         <v>12</v>
@@ -1879,13 +1879,13 @@
         <v>20</v>
       </c>
       <c r="AC8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE8" t="n">
         <v>14</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13.5</v>
       </c>
       <c r="AF8" t="n">
         <v>50</v>
@@ -1894,13 +1894,13 @@
         <v>300</v>
       </c>
       <c r="AH8" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI8" t="n">
         <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
         <v>110</v>
@@ -1915,7 +1915,7 @@
         <v>3.55</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AP8" t="n">
         <v>14.5</v>
@@ -1940,22 +1940,22 @@
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>28</v>
       </c>
-      <c r="AZ8" t="n">
-        <v>27</v>
-      </c>
       <c r="BA8" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB8" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD8" t="inlineStr"/>
     </row>
@@ -1991,22 +1991,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2042,13 +2042,13 @@
         <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
@@ -2060,10 +2060,10 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2072,37 +2072,37 @@
         <v>351</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
         <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
         <v>201</v>
@@ -2120,22 +2120,22 @@
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>34</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD9" t="n">
         <v>126</v>
@@ -2203,10 +2203,10 @@
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
@@ -2355,22 +2355,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H11" t="n">
         <v>3.55</v>
       </c>
       <c r="I11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J11" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L11" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -2382,7 +2382,7 @@
         <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q11" t="n">
         <v>2.05</v>
@@ -2391,34 +2391,34 @@
         <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V11" t="n">
         <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="X11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AC11" t="n">
         <v>6.7</v>
@@ -2436,31 +2436,31 @@
         <v>700</v>
       </c>
       <c r="AH11" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AL11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM11" t="n">
         <v>32</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AP11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ11" t="n">
         <v>200</v>
@@ -2472,29 +2472,29 @@
         <v>500</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
         <v>3.4</v>
       </c>
       <c r="AY11" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AZ11" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BC11" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -771,16 +771,16 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -1108,13 +1108,13 @@
         <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="K4" t="n">
         <v>2.27</v>
@@ -1123,22 +1123,22 @@
         <v>4.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>4.05</v>
+        <v>4.21</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
         <v>1.31</v>
@@ -1147,22 +1147,22 @@
         <v>3.15</v>
       </c>
       <c r="U4" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="V4" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y4" t="n">
         <v>7</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>10.5</v>
@@ -1171,10 +1171,10 @@
         <v>18</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -1186,7 +1186,7 @@
         <v>250</v>
       </c>
       <c r="AH4" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -1222,7 +1222,7 @@
         <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
         <v>7.2</v>
@@ -1232,10 +1232,10 @@
       </c>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ4" t="n">
         <v>26</v>
@@ -1307,16 +1307,16 @@
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1461,28 +1461,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H6" t="n">
         <v>3.65</v>
       </c>
       <c r="I6" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
         <v>2.2</v>
       </c>
       <c r="K6" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.26</v>
@@ -1497,10 +1497,10 @@
         <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="T6" t="n">
-        <v>2.94</v>
+        <v>2.57</v>
       </c>
       <c r="U6" t="n">
         <v>1.78</v>
@@ -1509,16 +1509,16 @@
         <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="X6" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
@@ -1530,28 +1530,28 @@
         <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>16</v>
       </c>
-      <c r="AF6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AK6" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="n">
         <v>50</v>
@@ -1560,38 +1560,38 @@
         <v>50</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS6" t="n">
         <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>70</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AY6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>32</v>
@@ -1642,39 +1642,43 @@
         <v>1.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L7" t="n">
         <v>5.2</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
         <v>1.39</v>
       </c>
       <c r="T7" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="U7" t="n">
         <v>1.93</v>
@@ -1683,28 +1687,28 @@
         <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
         <v>32</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE7" t="n">
         <v>17.5</v>
@@ -1722,13 +1726,13 @@
         <v>30</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
         <v>60</v>
@@ -1737,13 +1741,13 @@
         <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AP7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR7" t="n">
         <v>60</v>
@@ -1752,10 +1756,10 @@
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV7" t="n">
         <v>70</v>
@@ -1765,7 +1769,7 @@
         <v>6.7</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ7" t="n">
         <v>32</v>
@@ -1777,7 +1781,7 @@
         <v>200</v>
       </c>
       <c r="BC7" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BD7" t="inlineStr"/>
     </row>
@@ -2009,16 +2013,16 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
         <v>2.1</v>
@@ -2173,22 +2177,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K10" t="n">
         <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -2215,16 +2219,16 @@
         <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
@@ -2242,16 +2246,16 @@
         <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH10" t="n">
         <v>13</v>
@@ -2260,22 +2264,22 @@
         <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
         <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
@@ -2287,13 +2291,13 @@
         <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
         <v>3.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
@@ -2302,16 +2306,16 @@
         <v>81</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
         <v>81</v>
@@ -2355,34 +2359,34 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H11" t="n">
         <v>3.55</v>
       </c>
       <c r="I11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J11" t="n">
         <v>5.2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q11" t="n">
         <v>2.05</v>
@@ -2391,10 +2395,10 @@
         <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T11" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="U11" t="n">
         <v>2.05</v>
@@ -2403,10 +2407,10 @@
         <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y11" t="n">
         <v>16.5</v>
@@ -2421,10 +2425,10 @@
         <v>65</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE11" t="n">
         <v>19</v>
@@ -2439,13 +2443,13 @@
         <v>5.8</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AJ11" t="n">
         <v>8.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AL11" t="n">
         <v>14.5</v>
@@ -2454,10 +2458,10 @@
         <v>32</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP11" t="n">
         <v>37</v>
@@ -2472,10 +2476,10 @@
         <v>500</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>90</v>
@@ -2485,16 +2489,16 @@
         <v>3.4</v>
       </c>
       <c r="AY11" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AZ11" t="n">
         <v>19.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BC11" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -777,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R2" t="n">
         <v>2.35</v>
@@ -1123,16 +1123,16 @@
         <v>4.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O4" t="n">
         <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>4.21</v>
+        <v>4.19</v>
       </c>
       <c r="Q4" t="n">
         <v>1.65</v>
@@ -1147,10 +1147,10 @@
         <v>3.15</v>
       </c>
       <c r="U4" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V4" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1289,7 +1289,7 @@
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -1461,40 +1461,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="H6" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="K6" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L6" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S6" t="n">
         <v>1.39</v>
@@ -1503,107 +1503,107 @@
         <v>2.57</v>
       </c>
       <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.78</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W6" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
       </c>
       <c r="Z6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA6" t="n">
         <v>12</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
       </c>
       <c r="AB6" t="n">
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AE6" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH6" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="AP6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AR6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS6" t="n">
         <v>250</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AV6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AZ6" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="BA6" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BB6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC6" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD6" t="inlineStr"/>
     </row>
@@ -1642,19 +1642,19 @@
         <v>1.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1663,16 +1663,16 @@
         <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
         <v>2.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
         <v>1.39</v>
@@ -1681,73 +1681,73 @@
         <v>2.57</v>
       </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W7" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="X7" t="n">
         <v>6.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB7" t="n">
         <v>32</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG7" t="n">
         <v>900</v>
       </c>
       <c r="AH7" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
         <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AP7" t="n">
         <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR7" t="n">
         <v>60</v>
@@ -1756,20 +1756,20 @@
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AV7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ7" t="n">
         <v>32</v>
@@ -1781,7 +1781,7 @@
         <v>200</v>
       </c>
       <c r="BC7" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD7" t="inlineStr"/>
     </row>
@@ -1995,40 +1995,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
         <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2037,19 +2037,19 @@
         <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
         <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
         <v>15</v>
@@ -2061,7 +2061,7 @@
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
@@ -2073,7 +2073,7 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH9" t="n">
         <v>11</v>
@@ -2127,7 +2127,7 @@
         <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
         <v>34</v>
@@ -2207,7 +2207,7 @@
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
         <v>2.1</v>
@@ -2219,7 +2219,7 @@
         <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V10" t="n">
         <v>2.1</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -747,55 +747,55 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T2" t="n">
         <v>3.75</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="U2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.5</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.38</v>
-      </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -804,19 +804,19 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -825,61 +825,61 @@
         <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>15</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
         <v>23</v>
@@ -927,134 +927,134 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>2.62</v>
+        <v>2.77</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="L3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>10.9</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.95</v>
+        <v>3.53</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.62</v>
       </c>
-      <c r="R3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.54</v>
-      </c>
       <c r="V3" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="W3" t="n">
-        <v>9.25</v>
+        <v>7.2</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH3" t="n">
         <v>8.75</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM3" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.7</v>
+        <v>4.35</v>
       </c>
       <c r="AO3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS3" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AU3" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AV3" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AY3" t="n">
         <v>14.5</v>
@@ -1063,7 +1063,7 @@
         <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB3" t="n">
         <v>80</v>
@@ -1108,19 +1108,19 @@
         <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="J4" t="n">
         <v>2.22</v>
       </c>
       <c r="K4" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="L4" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1129,88 +1129,88 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>4.19</v>
+        <v>4.35</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T4" t="n">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
       <c r="U4" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V4" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA4" t="n">
         <v>10.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
         <v>12.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AG4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH4" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM4" t="n">
         <v>27</v>
       </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
       <c r="AN4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AP4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
         <v>26</v>
@@ -1219,35 +1219,35 @@
         <v>50</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AV4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AY4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB4" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD4" t="inlineStr"/>
     </row>
@@ -1289,7 +1289,7 @@
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -1307,16 +1307,16 @@
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1461,40 +1461,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="I6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L6" t="n">
         <v>6.4</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.9</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>12.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>1.39</v>
@@ -1509,98 +1509,98 @@
         <v>1.78</v>
       </c>
       <c r="W6" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
         <v>6.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB6" t="n">
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL6" t="n">
         <v>80</v>
       </c>
-      <c r="AG6" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>65</v>
-      </c>
       <c r="AM6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
         <v>3.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="AP6" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AR6" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AS6" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AV6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AZ6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC6" t="n">
         <v>500</v>
@@ -1639,28 +1639,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="K7" t="n">
         <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>5.1</v>
+        <v>4.65</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="O7" t="n">
         <v>1.34</v>
@@ -1681,25 +1681,25 @@
         <v>2.57</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="X7" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
         <v>32</v>
@@ -1708,46 +1708,46 @@
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG7" t="n">
         <v>900</v>
       </c>
       <c r="AH7" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>28</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>26</v>
       </c>
       <c r="AR7" t="n">
         <v>60</v>
@@ -1759,29 +1759,29 @@
         <v>2.57</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AY7" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AZ7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BA7" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB7" t="n">
         <v>175</v>
       </c>
-      <c r="BB7" t="n">
-        <v>200</v>
-      </c>
       <c r="BC7" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BD7" t="inlineStr"/>
     </row>
@@ -1817,19 +1817,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K8" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
         <v>5.2</v>
@@ -1841,40 +1841,40 @@
         <v>12.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
         <v>3.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T8" t="n">
-        <v>3.34</v>
+        <v>3.32</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V8" t="n">
         <v>2.05</v>
       </c>
       <c r="W8" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="Y8" t="n">
         <v>7.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
         <v>11.5</v>
@@ -1883,83 +1883,83 @@
         <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL8" t="n">
         <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN8" t="n">
         <v>3.55</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AP8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ8" t="n">
         <v>22</v>
       </c>
       <c r="AR8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS8" t="n">
         <v>150</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA8" t="n">
         <v>175</v>
       </c>
       <c r="BB8" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC8" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD8" t="inlineStr"/>
     </row>
@@ -1995,88 +1995,88 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
         <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG9" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
         <v>21</v>
@@ -2091,34 +2091,34 @@
         <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
         <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW9" t="n">
         <v>126</v>
@@ -2127,19 +2127,19 @@
         <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="BD9" t="n">
         <v>126</v>
@@ -2177,37 +2177,37 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.6</v>
       </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
       <c r="J10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
         <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R10" t="n">
         <v>2.1</v>
@@ -2219,25 +2219,25 @@
         <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="n">
         <v>15</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>13</v>
       </c>
       <c r="AB10" t="n">
         <v>23</v>
@@ -2261,7 +2261,7 @@
         <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>13</v>
@@ -2273,25 +2273,25 @@
         <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
         <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
         <v>3.25</v>
@@ -2306,16 +2306,16 @@
         <v>81</v>
       </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>26</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
         <v>81</v>
@@ -2359,22 +2359,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.55</v>
       </c>
       <c r="I11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K11" t="n">
         <v>2.15</v>
       </c>
       <c r="L11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -2386,10 +2386,10 @@
         <v>1.35</v>
       </c>
       <c r="P11" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
         <v>1.7</v>
@@ -2401,25 +2401,25 @@
         <v>2.67</v>
       </c>
       <c r="U11" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V11" t="n">
         <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="X11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
         <v>65</v>
@@ -2437,31 +2437,31 @@
         <v>110</v>
       </c>
       <c r="AG11" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
         <v>5.8</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK11" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM11" t="n">
         <v>32</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP11" t="n">
         <v>37</v>
@@ -2486,16 +2486,16 @@
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AY11" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
         <v>65</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -747,46 +747,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.5</v>
@@ -801,22 +801,22 @@
         <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -828,43 +828,43 @@
         <v>101</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
@@ -873,16 +873,16 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>21</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>23</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -933,10 +933,10 @@
         <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="K3" t="n">
         <v>2.12</v>
@@ -951,58 +951,58 @@
         <v>9.949999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>3.53</v>
+        <v>3.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T3" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V3" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
         <v>5.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF3" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG3" t="n">
         <v>200</v>
@@ -1017,53 +1017,53 @@
         <v>8.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AO3" t="n">
         <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR3" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS3" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AY3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB3" t="n">
         <v>80</v>
@@ -1105,149 +1105,149 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4.15</v>
+        <v>5.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="K4" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4.35</v>
+        <v>5.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>4.35</v>
+        <v>3.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="T4" t="n">
-        <v>3.22</v>
+        <v>2.99</v>
       </c>
       <c r="U4" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>5.6</v>
       </c>
       <c r="X4" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="Y4" t="n">
         <v>6.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
         <v>10.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD4" t="n">
         <v>6.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AF4" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AH4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>22</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK4" t="n">
+      <c r="AR4" t="n">
         <v>55</v>
       </c>
-      <c r="AL4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>50</v>
-      </c>
       <c r="AS4" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV4" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="BA4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="BB4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="BC4" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="BD4" t="inlineStr"/>
     </row>
@@ -1286,7 +1286,7 @@
         <v>2.35</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
         <v>2.63</v>
@@ -1298,7 +1298,7 @@
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1307,28 +1307,28 @@
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W5" t="n">
         <v>11</v>
@@ -1346,10 +1346,10 @@
         <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1358,13 +1358,13 @@
         <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1376,10 +1376,10 @@
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
         <v>4.75</v>
@@ -1388,7 +1388,7 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
@@ -1397,13 +1397,13 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV5" t="n">
         <v>41</v>
@@ -1425,7 +1425,7 @@
         <v>51</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD5" t="inlineStr"/>
     </row>
@@ -1817,19 +1817,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
         <v>5.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
         <v>5.2</v>
@@ -1847,58 +1847,58 @@
         <v>3.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="T8" t="n">
-        <v>3.32</v>
+        <v>3.42</v>
       </c>
       <c r="U8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>35</v>
@@ -1916,16 +1916,16 @@
         <v>45</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AP8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
         <v>40</v>
@@ -1934,32 +1934,32 @@
         <v>150</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AU8" t="n">
         <v>6.9</v>
       </c>
       <c r="AV8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA8" t="n">
         <v>175</v>
       </c>
       <c r="BB8" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC8" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD8" t="inlineStr"/>
     </row>
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
@@ -2013,28 +2013,28 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
         <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U9" t="n">
         <v>2.2</v>
@@ -2046,13 +2046,13 @@
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
         <v>19</v>
@@ -2064,7 +2064,7 @@
         <v>6.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2112,7 +2112,7 @@
         <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU9" t="n">
         <v>9.5</v>
@@ -2177,31 +2177,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
         <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
         <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2219,10 +2219,10 @@
         <v>3.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
         <v>9</v>
@@ -2231,10 +2231,10 @@
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
@@ -2273,25 +2273,25 @@
         <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
         <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
         <v>3.25</v>
@@ -2306,16 +2306,16 @@
         <v>81</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>26</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -801,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
         <v>17</v>
@@ -831,16 +831,16 @@
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
@@ -849,7 +849,7 @@
         <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -861,7 +861,7 @@
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
         <v>3.5</v>
@@ -882,7 +882,7 @@
         <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA2" t="n">
         <v>51</v>
@@ -1111,94 +1111,94 @@
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L4" t="n">
         <v>5.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>9.699999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>3.62</v>
+        <v>3.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W4" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Z4" t="n">
         <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK4" t="n">
         <v>80</v>
       </c>
       <c r="AL4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
         <v>40</v>
@@ -1210,35 +1210,35 @@
         <v>7.2</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ4" t="n">
         <v>22</v>
       </c>
       <c r="AR4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AY4" t="n">
         <v>32</v>
       </c>
       <c r="AZ4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA4" t="n">
         <v>200</v>
@@ -1247,7 +1247,7 @@
         <v>200</v>
       </c>
       <c r="BC4" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BD4" t="inlineStr"/>
     </row>
@@ -1283,40 +1283,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R5" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S5" t="n">
         <v>1.3</v>
@@ -1325,10 +1325,10 @@
         <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W5" t="n">
         <v>11</v>
@@ -1340,7 +1340,7 @@
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1349,10 +1349,10 @@
         <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
@@ -1364,10 +1364,10 @@
         <v>101</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
@@ -1376,16 +1376,16 @@
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
@@ -1408,7 +1408,9 @@
       <c r="AV5" t="n">
         <v>41</v>
       </c>
-      <c r="AW5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v>351</v>
+      </c>
       <c r="AX5" t="n">
         <v>5</v>
       </c>
@@ -1817,28 +1819,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L8" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
@@ -1847,85 +1849,85 @@
         <v>3.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R8" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3.42</v>
+        <v>3.38</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="Y8" t="n">
         <v>7.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
         <v>11.25</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
         <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AK8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
         <v>45</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AP8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AR8" t="n">
         <v>40</v>
@@ -1934,7 +1936,7 @@
         <v>150</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
         <v>6.9</v>
@@ -1944,19 +1946,19 @@
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA8" t="n">
         <v>175</v>
       </c>
       <c r="BB8" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC8" t="n">
         <v>300</v>
@@ -1995,34 +1997,34 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L9" t="n">
         <v>4.5</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
         <v>2.5</v>
@@ -2037,25 +2039,25 @@
         <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -2070,22 +2072,22 @@
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
         <v>501</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2094,19 +2096,19 @@
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
         <v>251</v>
@@ -2115,7 +2117,7 @@
         <v>2.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>81</v>
@@ -2124,22 +2126,22 @@
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="n">
         <v>126</v>
@@ -2359,115 +2361,115 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="J11" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="K11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="U11" t="n">
         <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF11" t="n">
         <v>100</v>
       </c>
-      <c r="AA11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>110</v>
-      </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH11" t="n">
         <v>5.8</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AM11" t="n">
         <v>32</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AQ11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AR11" t="n">
         <v>250</v>
@@ -2476,29 +2478,29 @@
         <v>500</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AY11" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BB11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BC11" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -747,94 +747,94 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
         <v>3.8</v>
       </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
       <c r="J2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.38</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="R2" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>9.5</v>
@@ -861,13 +861,13 @@
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -879,19 +879,19 @@
         <v>6</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
         <v>23</v>
       </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
         <v>67</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="inlineStr"/>
     </row>
@@ -1105,149 +1105,149 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="K4" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L4" t="n">
-        <v>5.4</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>10.8</v>
+        <v>9.35</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>3.72</v>
+        <v>3.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="R4" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="T4" t="n">
-        <v>3.04</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="Y4" t="n">
         <v>6.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
         <v>19.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AE4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG4" t="n">
         <v>350</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AM4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>50</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.87</v>
+        <v>2.65</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BA4" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BB4" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC4" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD4" t="inlineStr"/>
     </row>
@@ -1283,31 +1283,31 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>2.38</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
         <v>17</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1319,10 +1319,10 @@
         <v>2.35</v>
       </c>
       <c r="S5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U5" t="n">
         <v>1.5</v>
@@ -1337,13 +1337,13 @@
         <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
         <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>21</v>
@@ -1364,43 +1364,43 @@
         <v>101</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>21</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
         <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR5" t="n">
         <v>41</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU5" t="n">
         <v>7</v>
@@ -1412,16 +1412,16 @@
         <v>351</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ5" t="n">
         <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
         <v>51</v>
@@ -2015,10 +2015,10 @@
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2027,10 +2027,10 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2361,79 +2361,79 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I11" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="J11" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L11" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T11" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>1.72</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AA11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AE11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>100</v>
@@ -2442,65 +2442,65 @@
         <v>900</v>
       </c>
       <c r="AH11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AI11" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AJ11" t="n">
         <v>8.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AM11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP11" t="n">
         <v>32</v>
       </c>
-      <c r="AN11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>35</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AR11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AS11" t="n">
         <v>500</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AV11" t="n">
         <v>80</v>
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="AY11" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AZ11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="BB11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BC11" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -750,13 +750,13 @@
         <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
         <v>2.38</v>
@@ -777,10 +777,10 @@
         <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S2" t="n">
         <v>1.3</v>
@@ -789,13 +789,13 @@
         <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
         <v>10</v>
@@ -816,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -882,13 +882,13 @@
         <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA2" t="n">
         <v>67</v>
       </c>
       <c r="BB2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -2000,16 +2000,16 @@
         <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
@@ -2027,10 +2027,10 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2048,7 +2048,7 @@
         <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9.5</v>
@@ -2063,7 +2063,7 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2084,25 +2084,25 @@
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
       </c>
       <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
         <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
       </c>
       <c r="AN9" t="n">
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
@@ -2120,7 +2120,7 @@
         <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
         <v>126</v>
@@ -2209,10 +2209,10 @@
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S10" t="n">
         <v>1.33</v>
@@ -2361,146 +2361,146 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>9.5</v>
+        <v>11.75</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AA11" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="n">
         <v>900</v>
       </c>
       <c r="AH11" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="AJ11" t="n">
         <v>8.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM11" t="n">
         <v>35</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AP11" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AQ11" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AR11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS11" t="n">
         <v>500</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AV11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="AY11" t="n">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="AZ11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA11" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BC11" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -750,16 +750,16 @@
         <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
         <v>4.33</v>
@@ -771,22 +771,22 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
         <v>1.62</v>
@@ -816,10 +816,10 @@
         <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -828,10 +828,10 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -864,7 +864,7 @@
         <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -1997,88 +1997,88 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
         <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.5</v>
       </c>
-      <c r="P9" t="n">
+      <c r="T9" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
         <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
@@ -2108,13 +2108,13 @@
         <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2129,7 +2129,7 @@
         <v>5.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
         <v>34</v>
@@ -2138,10 +2138,10 @@
         <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD9" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -1997,40 +1997,40 @@
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.05</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2039,31 +2039,31 @@
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
         <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2072,37 +2072,37 @@
         <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
@@ -2117,7 +2117,7 @@
         <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
@@ -2126,10 +2126,10 @@
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
         <v>34</v>
@@ -2179,16 +2179,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.3</v>
@@ -2227,7 +2227,7 @@
         <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
@@ -2236,7 +2236,7 @@
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
@@ -2281,19 +2281,19 @@
         <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -1997,13 +1997,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
         <v>2.63</v>
@@ -2027,10 +2027,10 @@
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2039,22 +2039,22 @@
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
@@ -2063,7 +2063,7 @@
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2075,10 +2075,10 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
         <v>21</v>
@@ -2087,7 +2087,7 @@
         <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2117,7 +2117,7 @@
         <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
@@ -2138,7 +2138,7 @@
         <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
         <v>301</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -1997,13 +1997,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
         <v>2.63</v>
@@ -2015,10 +2015,10 @@
         <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -2027,10 +2027,10 @@
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2039,22 +2039,22 @@
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
@@ -2078,7 +2078,7 @@
         <v>401</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
         <v>21</v>
@@ -2087,7 +2087,7 @@
         <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2117,7 +2117,7 @@
         <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-12.xlsx
@@ -2015,10 +2015,10 @@
         <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -2027,10 +2027,10 @@
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
